--- a/PAUA/13 MATRIZ DE PRUEBAS/Matriz de Pruebas Aplicaciones Historico.xlsx
+++ b/PAUA/13 MATRIZ DE PRUEBAS/Matriz de Pruebas Aplicaciones Historico.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Historico " sheetId="8" r:id="rId1"/>
@@ -21,8 +21,8 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
-    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="5" r:id="rId4"/>
+    <pivotCache cacheId="8" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,6 +33,41 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Iris Lechuga</author>
+  </authors>
+  <commentList>
+    <comment ref="H42" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Iris Lechuga:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Es importante revisar la hora ya que se visualiza unos segundos adelantado
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ADOLFO ANGEL GARCIA</author>
@@ -117,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="129">
   <si>
     <t>Ambiente QA</t>
   </si>
@@ -465,13 +500,52 @@
   </si>
   <si>
     <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-1153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entidades </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipos de Entidades </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agregar Registro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se agrega registro, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se edito dos veces el registro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se Elimino el registro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se registraron los moviminetos, agregar, editar en dos ocaciones </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se visualiza registro creado y modificado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo de Entidades </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arroja ventana de error al intentar guardar la edición del registro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No  Elimino el registro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se registra solo el el registro agregado pero no se visualiza las modificaciones ni la eliminación del registro  agregar. </t>
+  </si>
+  <si>
+    <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-1205</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -547,6 +621,19 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -918,7 +1005,10 @@
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -987,7 +1077,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="es-MX" baseline="0"/>
-              <a:t> MOVIMIENTOS HISTORICO MENU APLICACIONES</a:t>
+              <a:t> MOVIMIENTOS HISTORICO MENU APLICACIONES ENTIDADES</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -2540,10 +2630,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
@@ -3008,13 +3098,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>GRAFICOS!$A$25:$A$27</c:f>
+              <c:f>GRAFICOS!$A$25:$A$28</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>(en blanco)</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Por hacer </c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>En Curso</c:v>
                 </c:pt>
               </c:strCache>
@@ -3022,12 +3115,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GRAFICOS!$B$25:$B$27</c:f>
+              <c:f>GRAFICOS!$B$25:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6246,13 +6342,78 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Iris Lechuga" refreshedDate="45455.641251967594" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="32">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Iris Lechuga" refreshedDate="45475.544792129629" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="37">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A6:L160" sheet="Historico "/>
+    <worksheetSource ref="A6:N159" sheet="Historico "/>
+  </cacheSource>
+  <cacheFields count="14">
+    <cacheField name="N° Caso" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="27"/>
+    </cacheField>
+    <cacheField name="Menús" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Submenú" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Perfil" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Usuario " numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Acción" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Estatus de Prueba" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Resultado Obtenido" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Resultado Esperado" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="N° de Indicente" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Desarrollador" numFmtId="0">
+      <sharedItems containsBlank="1" count="3">
+        <m/>
+        <s v="Pedro Pardo "/>
+        <s v="Gerardo Flores" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Estatus Incidente" numFmtId="0">
+      <sharedItems containsBlank="1" count="3">
+        <m/>
+        <s v="En Curso"/>
+        <s v="Por hacer "/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="N° de Tarea Jira" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Fecha " numFmtId="0">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2024-05-28T00:00:00" maxDate="2024-06-13T00:00:00"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Iris Lechuga" refreshedDate="45475.544792476852" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="37">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A6:L159" sheet="Historico "/>
   </cacheSource>
   <cacheFields count="12">
     <cacheField name="N° Caso" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="21"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="27"/>
     </cacheField>
     <cacheField name="Menús" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -6284,7 +6445,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="N° de Indicente" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Desarrollador" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -6301,526 +6462,8 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Iris Lechuga" refreshedDate="45455.641252199071" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="32">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A6:N160" sheet="Historico "/>
-  </cacheSource>
-  <cacheFields count="14">
-    <cacheField name="N° Caso" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="21"/>
-    </cacheField>
-    <cacheField name="Menús" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Submenú" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Perfil" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Usuario " numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Acción" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Estatus de Prueba" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Resultado Obtenido" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Resultado Esperado" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="N° de Indicente" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Desarrollador" numFmtId="0">
-      <sharedItems containsBlank="1" count="3">
-        <m/>
-        <s v="Pedro Pardo "/>
-        <s v="Gerardo Flores" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Estatus Incidente" numFmtId="0">
-      <sharedItems containsBlank="1" count="3">
-        <m/>
-        <s v="En Curso"/>
-        <s v="Por hacer " u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="N° de Tarea Jira" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Fecha " numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2024-06-07T00:00:00" maxDate="2024-06-13T00:00:00"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="32">
-  <r>
-    <n v="1"/>
-    <s v="Ingresar sitio wed"/>
-    <s v="http://10.200.4.165/"/>
-    <s v="Administrador "/>
-    <s v="airis  cont:sistemas1."/>
-    <s v="Ingresar "/>
-    <x v="0"/>
-    <s v="Ingreso Correctamente al sistema"/>
-    <s v="Ingresar datos del correctos del sistema "/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="2"/>
-    <s v="Seleccionar Plataforma "/>
-    <s v="PAUA"/>
-    <s v="Administrador "/>
-    <s v="airis  cont:sistemas1."/>
-    <s v="Ingresar "/>
-    <x v="0"/>
-    <s v="Ingreso a la Aplicación de Inmuebles "/>
-    <s v="Ingresar a la Aplicación  correspondiente "/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="3"/>
-    <s v="Aplicación PAUA"/>
-    <s v="Menú Inicio"/>
-    <s v="Administrador "/>
-    <s v="airis  cont:sistemas1."/>
-    <s v="Ingresar "/>
-    <x v="0"/>
-    <s v="Ingresar al menú y visualizar todos los submenus que compone "/>
-    <s v="Ingresar al menu inicio "/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="4"/>
-    <s v="Aplicación PAUA"/>
-    <s v="Aplicaciones "/>
-    <s v="Administrador "/>
-    <s v="airis  cont:sistemas1."/>
-    <s v="Ingresar al Submenu "/>
-    <x v="0"/>
-    <s v="Ingresar al modulo Aplicaciones "/>
-    <s v="Ingresar y navegar  para poder visualizar el modulo "/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="5"/>
-    <s v="Aplicación PAUA"/>
-    <s v="Aplicaciones "/>
-    <s v="Administrador "/>
-    <s v="airis  cont:sistemas1."/>
-    <s v="Registrar Aplicación "/>
-    <x v="0"/>
-    <s v="Registro de Aplicación creado "/>
-    <s v="Llenado de información necesaria para poder crear el registro de la aplicación "/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="6"/>
-    <s v="Aplicaciones "/>
-    <s v="Movimiento Historico "/>
-    <s v="Administrador "/>
-    <s v="airis  cont:sistemas1."/>
-    <s v="Visualizar Movimiento"/>
-    <x v="1"/>
-    <s v="Se visualiza movimiento del registro &quot;Creación&quot; trae un desajuste en la hora de creacción por minutos y el titulo de la pagina esta en minusculas "/>
-    <s v="Mostrar nodal con movimientos de&quot; creación&quot; de registro "/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="7"/>
-    <s v="Aplicaciones "/>
-    <s v="Administrar Roles "/>
-    <s v="Administrador "/>
-    <s v="airis  cont:sistemas1."/>
-    <s v="Despliegue Nodal"/>
-    <x v="0"/>
-    <s v="Se visualiza pantalla y botón Agregar"/>
-    <s v="Se desplegara pantalla Roles visualizar botón Agregar "/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="8"/>
-    <s v="Aplicaciones "/>
-    <s v="Administrar Roles "/>
-    <s v="Administrador "/>
-    <s v="airis  cont:sistemas1."/>
-    <s v="Agregar Elemento "/>
-    <x v="0"/>
-    <s v="Se llena formulario, se crea rol y se visualiza en pantalla y se activan botones de acciones "/>
-    <s v="LLenado de información necesaria para poder crear el registro del rol "/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="9"/>
-    <s v="Aplicaciones "/>
-    <s v="Administrar Roles "/>
-    <s v="Administrador "/>
-    <s v="airis  cont:sistemas1."/>
-    <s v="Visualizar Movimiento"/>
-    <x v="1"/>
-    <s v="Se visualiza movimiento del registro &quot;Creación&quot; trae un desajuste en la hora de creacción por minutos y el titulo de la pagina esta en minusculas "/>
-    <s v="Mostrar nodal con movimientos de&quot; creación&quot; de registro "/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <s v="Aplicaciones "/>
-    <s v="Administrar Roles "/>
-    <s v="Administrador "/>
-    <s v="airis  cont:sistemas1."/>
-    <s v="Editar"/>
-    <x v="0"/>
-    <s v="Edita Registro "/>
-    <s v="Editar Registro "/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <s v="Aplicaciones "/>
-    <s v="Administrar Roles "/>
-    <s v="Administrador "/>
-    <s v="airis  cont:sistemas1."/>
-    <s v="Eliminar "/>
-    <x v="0"/>
-    <s v="Elimina registro de Rol seleccionado "/>
-    <s v="Eliminar Registro "/>
-    <m/>
-    <s v="Pedro Pardo "/>
-    <s v="En Curso"/>
-  </r>
-  <r>
-    <m/>
-    <s v="Aplicaciones "/>
-    <s v="Administrar Roles "/>
-    <s v="Administrador "/>
-    <s v="airis  cont:sistemas1."/>
-    <s v="Editar Accesos a Menus "/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <s v="Aplicaciones "/>
-    <s v="Movimiento Historico "/>
-    <s v="Administrador "/>
-    <s v="airis  cont:sistemas1."/>
-    <s v="Visualizar Movimiento"/>
-    <x v="0"/>
-    <s v="Mostrar nodal con movimientos de&quot; creación rol &quot; de registro "/>
-    <s v="Mostrar nodal con movimientos de&quot; creación rol &quot; de registro "/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="10"/>
-    <s v="Aplicaciones "/>
-    <s v="Administración de Menús "/>
-    <s v="Administrador "/>
-    <s v="airis  cont:sistemas1."/>
-    <s v="Despliegue Nodal"/>
-    <x v="0"/>
-    <s v="Se visualiza pantalla y botón Agregar"/>
-    <s v="Se desplegara pantalla Menús visualizar botón Agregar "/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="11"/>
-    <s v="Aplicaciones "/>
-    <s v="Administración de Menús "/>
-    <s v="Administrador "/>
-    <s v="airis  cont:sistemas1."/>
-    <s v="Agregar Elemento "/>
-    <x v="2"/>
-    <s v="Se llena formulario, se crea Menu y se visualiza en pantalla y se activan botones de acciones, modificar mensaje de alerta cuando se agrega un campo equivocado dice object object "/>
-    <s v="LLenado de información necesaria para poder crear el registro del Menú"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="12"/>
-    <s v="Aplicaciones "/>
-    <s v="Administración de Menús "/>
-    <s v="Administrador "/>
-    <s v="airis  cont:sistemas1."/>
-    <s v="Editar"/>
-    <x v="0"/>
-    <s v="Edita Registro "/>
-    <s v="Editar Registro "/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="13"/>
-    <s v="Aplicaciones "/>
-    <s v="Administración de Menús "/>
-    <s v="Administrador "/>
-    <s v="airis  cont:sistemas1."/>
-    <s v="Eliminar "/>
-    <x v="2"/>
-    <s v="No Elimina el  registro de menu seleccionado "/>
-    <s v="Eliminar Registro "/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="15"/>
-    <s v="Aplicaciones "/>
-    <s v="Administración de Menús "/>
-    <s v="Administrador "/>
-    <s v="airis  cont:sistemas1."/>
-    <s v="Visualizar Movimiento"/>
-    <x v="0"/>
-    <s v="Mostrar nodal con movimientos de&quot; creación menu &quot; de registro "/>
-    <s v="Mostrar nodal con movimientos de&quot; creación del menu&quot; de registro "/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="14"/>
-    <s v="Administración de Menus "/>
-    <s v="Administrar Permisos "/>
-    <s v="Administrador "/>
-    <s v="airis  cont:sistemas1."/>
-    <s v="Despliegue Nodal"/>
-    <x v="0"/>
-    <s v="Se visualiza pantalla y botón Agregar"/>
-    <s v="Se desplegara pantalla Menús visualizar botón Agregar "/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <s v="Aplicaciones "/>
-    <s v="Administración de Menús "/>
-    <s v="Administrador "/>
-    <s v="airis  cont:sistemas1."/>
-    <s v="Agregar Elemento "/>
-    <x v="0"/>
-    <s v="Se llena formulario, se crea permiso en el menú  y se visualiza en pantalla y se activan botones de acciones"/>
-    <s v="LLenado de información necesaria para poder crear el registro del Permiso en el menú "/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <s v="Administración de Menus "/>
-    <s v="Permisos "/>
-    <s v="Administrador "/>
-    <s v="airis  cont:sistemas1."/>
-    <s v="Editar  "/>
-    <x v="0"/>
-    <s v="Edita Registro "/>
-    <s v="Editar Registro "/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <s v="Administración de Menus "/>
-    <s v="Permisos "/>
-    <s v="Administrador "/>
-    <s v="airis  cont:sistemas1."/>
-    <s v="Eliminar "/>
-    <x v="0"/>
-    <s v=" Elimina el  registro en este caso el permiso "/>
-    <s v="Eliminar Registro "/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <s v="Administración de Menus "/>
-    <s v="Permisos "/>
-    <s v="Administrador "/>
-    <s v="airis  cont:sistemas1."/>
-    <s v="Visualizar Movimiento"/>
-    <x v="0"/>
-    <s v="Mostrar nodal con movimientos de&quot; creación y modificacion del permiso  &quot; de registro "/>
-    <s v="Mostrar nodal con movimientos de&quot; creación del permiso&quot; de registro "/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="16"/>
-    <s v="Aplicaciones "/>
-    <s v="Movimiento Historico "/>
-    <s v="Administrador "/>
-    <s v="airis  cont:sistemas1."/>
-    <s v="Visualizar Movimiento"/>
-    <x v="0"/>
-    <s v="Se visualiza registro de creación, modificación, y eliminación del permiso "/>
-    <s v="Se visualiza registro de creación, modificación, y eliminación del permiso "/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="17"/>
-    <s v="Aplicaciones "/>
-    <s v="Administración de Roles /Roles "/>
-    <s v="Administrador "/>
-    <s v="airis  cont:sistemas1."/>
-    <s v="Editar Accesos a Menus "/>
-    <x v="2"/>
-    <s v="Da acceso al menu, el registro  se puede mover  a la izquierda para accesar y a la derecha para quitar el acceso. Al quitar el acceso Envia un mensaje de alerta &quot;Movimineto Fallido "/>
-    <s v="Dar acceso al menu, el registro deberá moverse a la izquierda para accesar y a la derecha para quitar el acceso. "/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <s v="Administración de Roles  "/>
-    <s v="Roles "/>
-    <s v="Administrador "/>
-    <s v="airis  cont:sistemas1."/>
-    <s v="Visualizar Movimiento"/>
-    <x v="2"/>
-    <s v="Se visualiza registro de asignacion pero no se visualiza el de  Designación de acceso al menu del Rol "/>
-    <s v="Se visualiza registro de asignacion y Designación de acceso al menu del Rol "/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="18"/>
-    <s v="Aplicaciones "/>
-    <s v="Administración de Roles /Roles "/>
-    <s v="Administrador "/>
-    <s v="airis  cont:sistemas1."/>
-    <s v="Administrar Permisos "/>
-    <x v="2"/>
-    <s v="No se puede asignar permisos, desde Administrar  Roles, Editar Accesos a Menús, dar acceso al menu, administrar permiso y asignar permiso es donde se genera el error como movimiento fallido "/>
-    <s v="Asignar Permisos "/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="19"/>
-    <s v="Aplicaciones "/>
-    <s v="Eliminar APP"/>
-    <s v="Administrador "/>
-    <s v="airis  cont:sistemas1."/>
-    <s v="Eliminar "/>
-    <x v="2"/>
-    <s v="No elimina el registro y envia un error desconocido en pantalla "/>
-    <s v="Eliminar Registro "/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="20"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="21"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="32">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="37">
   <r>
     <n v="1"/>
     <s v="Ingresar sitio wed"/>
@@ -6991,10 +6634,10 @@
     <s v="Realizado"/>
     <s v="Elimina registro de Rol seleccionado "/>
     <s v="Eliminar Registro "/>
-    <m/>
+    <s v=" 0000183"/>
     <x v="1"/>
     <x v="1"/>
-    <m/>
+    <s v="https://paua-sfytgenl.atlassian.net/browse/KPAUA-1153"/>
     <d v="2024-06-12T00:00:00"/>
   </r>
   <r>
@@ -7271,14 +6914,14 @@
   </r>
   <r>
     <n v="20"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="Entidades "/>
+    <s v="Tipos de Entidades "/>
+    <s v="Administrador "/>
+    <s v="airis  cont:sistemas1."/>
+    <s v="Agregar Elemento "/>
+    <s v="Realizado"/>
+    <s v="Se agrega registro, "/>
+    <s v="Agregar Registro "/>
     <m/>
     <x v="0"/>
     <x v="0"/>
@@ -7287,49 +6930,652 @@
   </r>
   <r>
     <n v="21"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="Entidades "/>
+    <s v="Tipos de Entidades "/>
+    <s v="Administrador "/>
+    <s v="airis  cont:sistemas1."/>
+    <s v="Editar  "/>
+    <s v="Realizado"/>
+    <s v="Se edito dos veces el registro "/>
+    <s v="Editar Registro "/>
     <m/>
     <x v="0"/>
     <x v="0"/>
     <m/>
-    <m/>
+    <d v="2024-05-28T00:00:00"/>
   </r>
   <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="22"/>
+    <s v="Entidades "/>
+    <s v="Tipos de Entidades "/>
+    <s v="Administrador "/>
+    <s v="airis  cont:sistemas1."/>
+    <s v="Eliminar "/>
+    <s v="Realizado"/>
+    <s v="Se Elimino el registro "/>
+    <s v="Eliminar Registro "/>
     <m/>
     <x v="0"/>
     <x v="0"/>
     <m/>
-    <m/>
+    <d v="2024-05-28T00:00:00"/>
   </r>
   <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="23"/>
+    <s v="Entidades "/>
+    <s v="Tipos de Entidades "/>
+    <s v="Administrador "/>
+    <s v="airis  cont:sistemas1."/>
+    <s v="Visualizar Movimiento"/>
+    <s v="Realizado"/>
+    <s v="Se registraron los moviminetos, agregar, editar en dos ocaciones "/>
+    <s v="Se visualiza registro creado y modificado "/>
     <m/>
     <x v="0"/>
     <x v="0"/>
+    <m/>
+    <d v="2024-05-28T00:00:00"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <s v="Tipo de Entidades "/>
+    <s v="Tipos de Entidades "/>
+    <s v="Administrador "/>
+    <s v="airis  cont:sistemas1."/>
+    <s v="Agregar Elemento "/>
+    <s v="Realizado"/>
+    <s v="Se agrega registro, "/>
+    <s v="Agregar Registro "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-05-28T00:00:00"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <s v="Tipo de Entidades "/>
+    <s v="Tipos de Entidades "/>
+    <s v="Administrador "/>
+    <s v="airis  cont:sistemas1."/>
+    <s v="Editar  "/>
+    <s v="Error "/>
+    <s v="Arroja ventana de error al intentar guardar la edición del registro "/>
+    <s v="Editar Registro "/>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="https://paua-sfytgenl.atlassian.net/browse/KPAUA-1205"/>
+    <d v="2024-05-28T00:00:00"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <s v="Tipo de Entidades "/>
+    <s v="Tipos de Entidades "/>
+    <s v="Administrador "/>
+    <s v="airis  cont:sistemas1."/>
+    <s v="Eliminar "/>
+    <s v="Error "/>
+    <s v="No  Elimino el registro "/>
+    <s v="Eliminar Registro "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-05-28T00:00:00"/>
+  </r>
+  <r>
+    <n v="27"/>
+    <s v="Tipo de Entidades "/>
+    <s v="Tipos de Entidades "/>
+    <s v="Administrador "/>
+    <s v="airis  cont:sistemas1."/>
+    <s v="Visualizar Movimiento"/>
+    <s v="Error "/>
+    <s v="Se registra solo el el registro agregado pero no se visualiza las modificaciones ni la eliminación del registro  agregar. "/>
+    <s v="Se visualiza registro creado y modificado "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2024-05-28T00:00:00"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="37">
+  <r>
+    <n v="1"/>
+    <s v="Ingresar sitio wed"/>
+    <s v="http://10.200.4.165/"/>
+    <s v="Administrador "/>
+    <s v="airis  cont:sistemas1."/>
+    <s v="Ingresar "/>
+    <x v="0"/>
+    <s v="Ingreso Correctamente al sistema"/>
+    <s v="Ingresar datos del correctos del sistema "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2"/>
+    <s v="Seleccionar Plataforma "/>
+    <s v="PAUA"/>
+    <s v="Administrador "/>
+    <s v="airis  cont:sistemas1."/>
+    <s v="Ingresar "/>
+    <x v="0"/>
+    <s v="Ingreso a la Aplicación de Inmuebles "/>
+    <s v="Ingresar a la Aplicación  correspondiente "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="3"/>
+    <s v="Aplicación PAUA"/>
+    <s v="Menú Inicio"/>
+    <s v="Administrador "/>
+    <s v="airis  cont:sistemas1."/>
+    <s v="Ingresar "/>
+    <x v="0"/>
+    <s v="Ingresar al menú y visualizar todos los submenus que compone "/>
+    <s v="Ingresar al menu inicio "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="4"/>
+    <s v="Aplicación PAUA"/>
+    <s v="Aplicaciones "/>
+    <s v="Administrador "/>
+    <s v="airis  cont:sistemas1."/>
+    <s v="Ingresar al Submenu "/>
+    <x v="0"/>
+    <s v="Ingresar al modulo Aplicaciones "/>
+    <s v="Ingresar y navegar  para poder visualizar el modulo "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="5"/>
+    <s v="Aplicación PAUA"/>
+    <s v="Aplicaciones "/>
+    <s v="Administrador "/>
+    <s v="airis  cont:sistemas1."/>
+    <s v="Registrar Aplicación "/>
+    <x v="0"/>
+    <s v="Registro de Aplicación creado "/>
+    <s v="Llenado de información necesaria para poder crear el registro de la aplicación "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="6"/>
+    <s v="Aplicaciones "/>
+    <s v="Movimiento Historico "/>
+    <s v="Administrador "/>
+    <s v="airis  cont:sistemas1."/>
+    <s v="Visualizar Movimiento"/>
+    <x v="1"/>
+    <s v="Se visualiza movimiento del registro &quot;Creación&quot; trae un desajuste en la hora de creacción por minutos y el titulo de la pagina esta en minusculas "/>
+    <s v="Mostrar nodal con movimientos de&quot; creación&quot; de registro "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="7"/>
+    <s v="Aplicaciones "/>
+    <s v="Administrar Roles "/>
+    <s v="Administrador "/>
+    <s v="airis  cont:sistemas1."/>
+    <s v="Despliegue Nodal"/>
+    <x v="0"/>
+    <s v="Se visualiza pantalla y botón Agregar"/>
+    <s v="Se desplegara pantalla Roles visualizar botón Agregar "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="8"/>
+    <s v="Aplicaciones "/>
+    <s v="Administrar Roles "/>
+    <s v="Administrador "/>
+    <s v="airis  cont:sistemas1."/>
+    <s v="Agregar Elemento "/>
+    <x v="0"/>
+    <s v="Se llena formulario, se crea rol y se visualiza en pantalla y se activan botones de acciones "/>
+    <s v="LLenado de información necesaria para poder crear el registro del rol "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="9"/>
+    <s v="Aplicaciones "/>
+    <s v="Administrar Roles "/>
+    <s v="Administrador "/>
+    <s v="airis  cont:sistemas1."/>
+    <s v="Visualizar Movimiento"/>
+    <x v="1"/>
+    <s v="Se visualiza movimiento del registro &quot;Creación&quot; trae un desajuste en la hora de creacción por minutos y el titulo de la pagina esta en minusculas "/>
+    <s v="Mostrar nodal con movimientos de&quot; creación&quot; de registro "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <s v="Aplicaciones "/>
+    <s v="Administrar Roles "/>
+    <s v="Administrador "/>
+    <s v="airis  cont:sistemas1."/>
+    <s v="Editar"/>
+    <x v="0"/>
+    <s v="Edita Registro "/>
+    <s v="Editar Registro "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <s v="Aplicaciones "/>
+    <s v="Administrar Roles "/>
+    <s v="Administrador "/>
+    <s v="airis  cont:sistemas1."/>
+    <s v="Eliminar "/>
+    <x v="0"/>
+    <s v="Elimina registro de Rol seleccionado "/>
+    <s v="Eliminar Registro "/>
+    <s v=" 0000183"/>
+    <s v="Pedro Pardo "/>
+    <s v="En Curso"/>
+  </r>
+  <r>
+    <m/>
+    <s v="Aplicaciones "/>
+    <s v="Administrar Roles "/>
+    <s v="Administrador "/>
+    <s v="airis  cont:sistemas1."/>
+    <s v="Editar Accesos a Menus "/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <s v="Aplicaciones "/>
+    <s v="Movimiento Historico "/>
+    <s v="Administrador "/>
+    <s v="airis  cont:sistemas1."/>
+    <s v="Visualizar Movimiento"/>
+    <x v="0"/>
+    <s v="Mostrar nodal con movimientos de&quot; creación rol &quot; de registro "/>
+    <s v="Mostrar nodal con movimientos de&quot; creación rol &quot; de registro "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="10"/>
+    <s v="Aplicaciones "/>
+    <s v="Administración de Menús "/>
+    <s v="Administrador "/>
+    <s v="airis  cont:sistemas1."/>
+    <s v="Despliegue Nodal"/>
+    <x v="0"/>
+    <s v="Se visualiza pantalla y botón Agregar"/>
+    <s v="Se desplegara pantalla Menús visualizar botón Agregar "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="11"/>
+    <s v="Aplicaciones "/>
+    <s v="Administración de Menús "/>
+    <s v="Administrador "/>
+    <s v="airis  cont:sistemas1."/>
+    <s v="Agregar Elemento "/>
+    <x v="2"/>
+    <s v="Se llena formulario, se crea Menu y se visualiza en pantalla y se activan botones de acciones, modificar mensaje de alerta cuando se agrega un campo equivocado dice object object "/>
+    <s v="LLenado de información necesaria para poder crear el registro del Menú"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="12"/>
+    <s v="Aplicaciones "/>
+    <s v="Administración de Menús "/>
+    <s v="Administrador "/>
+    <s v="airis  cont:sistemas1."/>
+    <s v="Editar"/>
+    <x v="0"/>
+    <s v="Edita Registro "/>
+    <s v="Editar Registro "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="13"/>
+    <s v="Aplicaciones "/>
+    <s v="Administración de Menús "/>
+    <s v="Administrador "/>
+    <s v="airis  cont:sistemas1."/>
+    <s v="Eliminar "/>
+    <x v="2"/>
+    <s v="No Elimina el  registro de menu seleccionado "/>
+    <s v="Eliminar Registro "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="15"/>
+    <s v="Aplicaciones "/>
+    <s v="Administración de Menús "/>
+    <s v="Administrador "/>
+    <s v="airis  cont:sistemas1."/>
+    <s v="Visualizar Movimiento"/>
+    <x v="0"/>
+    <s v="Mostrar nodal con movimientos de&quot; creación menu &quot; de registro "/>
+    <s v="Mostrar nodal con movimientos de&quot; creación del menu&quot; de registro "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="14"/>
+    <s v="Administración de Menus "/>
+    <s v="Administrar Permisos "/>
+    <s v="Administrador "/>
+    <s v="airis  cont:sistemas1."/>
+    <s v="Despliegue Nodal"/>
+    <x v="0"/>
+    <s v="Se visualiza pantalla y botón Agregar"/>
+    <s v="Se desplegara pantalla Menús visualizar botón Agregar "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <s v="Aplicaciones "/>
+    <s v="Administración de Menús "/>
+    <s v="Administrador "/>
+    <s v="airis  cont:sistemas1."/>
+    <s v="Agregar Elemento "/>
+    <x v="0"/>
+    <s v="Se llena formulario, se crea permiso en el menú  y se visualiza en pantalla y se activan botones de acciones"/>
+    <s v="LLenado de información necesaria para poder crear el registro del Permiso en el menú "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <s v="Administración de Menus "/>
+    <s v="Permisos "/>
+    <s v="Administrador "/>
+    <s v="airis  cont:sistemas1."/>
+    <s v="Editar  "/>
+    <x v="0"/>
+    <s v="Edita Registro "/>
+    <s v="Editar Registro "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <s v="Administración de Menus "/>
+    <s v="Permisos "/>
+    <s v="Administrador "/>
+    <s v="airis  cont:sistemas1."/>
+    <s v="Eliminar "/>
+    <x v="0"/>
+    <s v=" Elimina el  registro en este caso el permiso "/>
+    <s v="Eliminar Registro "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <s v="Administración de Menus "/>
+    <s v="Permisos "/>
+    <s v="Administrador "/>
+    <s v="airis  cont:sistemas1."/>
+    <s v="Visualizar Movimiento"/>
+    <x v="0"/>
+    <s v="Mostrar nodal con movimientos de&quot; creación y modificacion del permiso  &quot; de registro "/>
+    <s v="Mostrar nodal con movimientos de&quot; creación del permiso&quot; de registro "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="16"/>
+    <s v="Aplicaciones "/>
+    <s v="Movimiento Historico "/>
+    <s v="Administrador "/>
+    <s v="airis  cont:sistemas1."/>
+    <s v="Visualizar Movimiento"/>
+    <x v="0"/>
+    <s v="Se visualiza registro de creación, modificación, y eliminación del permiso "/>
+    <s v="Se visualiza registro de creación, modificación, y eliminación del permiso "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="17"/>
+    <s v="Aplicaciones "/>
+    <s v="Administración de Roles /Roles "/>
+    <s v="Administrador "/>
+    <s v="airis  cont:sistemas1."/>
+    <s v="Editar Accesos a Menus "/>
+    <x v="2"/>
+    <s v="Da acceso al menu, el registro  se puede mover  a la izquierda para accesar y a la derecha para quitar el acceso. Al quitar el acceso Envia un mensaje de alerta &quot;Movimineto Fallido "/>
+    <s v="Dar acceso al menu, el registro deberá moverse a la izquierda para accesar y a la derecha para quitar el acceso. "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <s v="Administración de Roles  "/>
+    <s v="Roles "/>
+    <s v="Administrador "/>
+    <s v="airis  cont:sistemas1."/>
+    <s v="Visualizar Movimiento"/>
+    <x v="2"/>
+    <s v="Se visualiza registro de asignacion pero no se visualiza el de  Designación de acceso al menu del Rol "/>
+    <s v="Se visualiza registro de asignacion y Designación de acceso al menu del Rol "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="18"/>
+    <s v="Aplicaciones "/>
+    <s v="Administración de Roles /Roles "/>
+    <s v="Administrador "/>
+    <s v="airis  cont:sistemas1."/>
+    <s v="Administrar Permisos "/>
+    <x v="2"/>
+    <s v="No se puede asignar permisos, desde Administrar  Roles, Editar Accesos a Menús, dar acceso al menu, administrar permiso y asignar permiso es donde se genera el error como movimiento fallido "/>
+    <s v="Asignar Permisos "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="19"/>
+    <s v="Aplicaciones "/>
+    <s v="Eliminar APP"/>
+    <s v="Administrador "/>
+    <s v="airis  cont:sistemas1."/>
+    <s v="Eliminar "/>
+    <x v="2"/>
+    <s v="No elimina el registro y envia un error desconocido en pantalla "/>
+    <s v="Eliminar Registro "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="20"/>
+    <s v="Entidades "/>
+    <s v="Tipos de Entidades "/>
+    <s v="Administrador "/>
+    <s v="airis  cont:sistemas1."/>
+    <s v="Agregar Elemento "/>
+    <x v="0"/>
+    <s v="Se agrega registro, "/>
+    <s v="Agregar Registro "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="21"/>
+    <s v="Entidades "/>
+    <s v="Tipos de Entidades "/>
+    <s v="Administrador "/>
+    <s v="airis  cont:sistemas1."/>
+    <s v="Editar  "/>
+    <x v="0"/>
+    <s v="Se edito dos veces el registro "/>
+    <s v="Editar Registro "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="22"/>
+    <s v="Entidades "/>
+    <s v="Tipos de Entidades "/>
+    <s v="Administrador "/>
+    <s v="airis  cont:sistemas1."/>
+    <s v="Eliminar "/>
+    <x v="0"/>
+    <s v="Se Elimino el registro "/>
+    <s v="Eliminar Registro "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="23"/>
+    <s v="Entidades "/>
+    <s v="Tipos de Entidades "/>
+    <s v="Administrador "/>
+    <s v="airis  cont:sistemas1."/>
+    <s v="Visualizar Movimiento"/>
+    <x v="0"/>
+    <s v="Se registraron los moviminetos, agregar, editar en dos ocaciones "/>
+    <s v="Se visualiza registro creado y modificado "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="24"/>
+    <s v="Tipo de Entidades "/>
+    <s v="Tipos de Entidades "/>
+    <s v="Administrador "/>
+    <s v="airis  cont:sistemas1."/>
+    <s v="Agregar Elemento "/>
+    <x v="0"/>
+    <s v="Se agrega registro, "/>
+    <s v="Agregar Registro "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="25"/>
+    <s v="Tipo de Entidades "/>
+    <s v="Tipos de Entidades "/>
+    <s v="Administrador "/>
+    <s v="airis  cont:sistemas1."/>
+    <s v="Editar  "/>
+    <x v="2"/>
+    <s v="Arroja ventana de error al intentar guardar la edición del registro "/>
+    <s v="Editar Registro "/>
+    <m/>
+    <s v="Pedro Pardo "/>
+    <s v="Por hacer "/>
+  </r>
+  <r>
+    <n v="26"/>
+    <s v="Tipo de Entidades "/>
+    <s v="Tipos de Entidades "/>
+    <s v="Administrador "/>
+    <s v="airis  cont:sistemas1."/>
+    <s v="Eliminar "/>
+    <x v="2"/>
+    <s v="No  Elimino el registro "/>
+    <s v="Eliminar Registro "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="27"/>
+    <s v="Tipo de Entidades "/>
+    <s v="Tipos de Entidades "/>
+    <s v="Administrador "/>
+    <s v="airis  cont:sistemas1."/>
+    <s v="Visualizar Movimiento"/>
+    <x v="2"/>
+    <s v="Se registra solo el el registro agregado pero no se visualiza las modificaciones ni la eliminación del registro  agregar. "/>
+    <s v="Se visualiza registro creado y modificado "/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -7337,8 +7583,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
-  <location ref="A24:B27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+  <location ref="A24:B28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
@@ -7354,7 +7600,7 @@
     <pivotField axis="axisRow" showAll="0">
       <items count="4">
         <item x="0"/>
-        <item m="1" x="2"/>
+        <item x="2"/>
         <item x="1"/>
         <item t="default"/>
       </items>
@@ -7365,9 +7611,12 @@
   <rowFields count="1">
     <field x="11"/>
   </rowFields>
-  <rowItems count="3">
+  <rowItems count="4">
     <i>
       <x/>
+    </i>
+    <i>
+      <x v="1"/>
     </i>
     <i>
       <x v="2"/>
@@ -7406,7 +7655,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -7454,7 +7703,7 @@
     <dataField name="Cuenta de Estatus de Prueba" fld="6" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
@@ -7522,7 +7771,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A47:B49" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -7546,7 +7795,7 @@
     <pivotField axis="axisCol" dataField="1" showAll="0">
       <items count="4">
         <item x="0"/>
-        <item m="1" x="2"/>
+        <item x="2"/>
         <item x="1"/>
         <item t="default"/>
       </items>
@@ -7852,12 +8101,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M18" sqref="M18"/>
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8570,7 +8819,7 @@
         <v>45455</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>15</v>
       </c>
@@ -8602,7 +8851,7 @@
         <v>45455</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>14</v>
       </c>
@@ -8634,7 +8883,7 @@
         <v>45455</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
         <v>58</v>
       </c>
@@ -8663,7 +8912,7 @@
         <v>45455</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
         <v>93</v>
       </c>
@@ -8692,7 +8941,7 @@
         <v>45455</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
         <v>93</v>
       </c>
@@ -8721,7 +8970,7 @@
         <v>45455</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>93</v>
       </c>
@@ -8750,7 +8999,7 @@
         <v>45455</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>16</v>
       </c>
@@ -8782,7 +9031,7 @@
         <v>45455</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="23" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" s="23" customFormat="1" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="23">
         <v>17</v>
       </c>
@@ -8811,11 +9060,12 @@
         <v>103</v>
       </c>
       <c r="K31"/>
+      <c r="L31"/>
       <c r="N31" s="1">
         <v>45455</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" s="23" customFormat="1" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B32" s="28" t="s">
         <v>105</v>
       </c>
@@ -8841,11 +9091,12 @@
         <v>107</v>
       </c>
       <c r="K32"/>
+      <c r="L32"/>
       <c r="N32" s="1">
         <v>45455</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="23" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" s="23" customFormat="1" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="23">
         <v>18</v>
       </c>
@@ -8874,11 +9125,12 @@
         <v>109</v>
       </c>
       <c r="K33"/>
+      <c r="L33"/>
       <c r="N33" s="1">
         <v>45455</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" s="23" customFormat="1" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="23">
         <v>19</v>
       </c>
@@ -8907,6 +9159,7 @@
         <v>80</v>
       </c>
       <c r="K34"/>
+      <c r="L34"/>
       <c r="N34" s="1">
         <v>45455</v>
       </c>
@@ -8915,28 +9168,266 @@
       <c r="A35">
         <v>20</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="19"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
+      <c r="B35" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="N35" s="1">
         <v>45455</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36">
+      <c r="A36" s="23">
         <v>21</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="19"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="N36" s="1"/>
+      <c r="B36" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="G36" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="N36" s="1">
+        <v>45440</v>
+      </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B37" s="3"/>
+      <c r="A37" s="23">
+        <v>22</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N37" s="1">
+        <v>45440</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>23</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="G38" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="N38" s="1">
+        <v>45440</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>24</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="G39" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="N39" s="1">
+        <v>45440</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A40" s="23">
+        <v>25</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="G40" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K40" t="s">
+        <v>26</v>
+      </c>
+      <c r="L40" t="s">
+        <v>43</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="N40" s="1">
+        <v>45440</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="23">
+        <v>26</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F41" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G41" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N41" s="1">
+        <v>45440</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>27</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="G42" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="N42" s="1">
+        <v>45440</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:N36">
@@ -8967,9 +9458,11 @@
     <hyperlink ref="C7" r:id="rId1"/>
     <hyperlink ref="J17" r:id="rId2" tooltip="[asignada] Plataforma de Acceso Único y Módulos Módulo a Probar: Histórico de Registros" display="http://10.200.4.202/view.php?id=183"/>
     <hyperlink ref="M17" r:id="rId3"/>
+    <hyperlink ref="M40" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+  <legacyDrawing r:id="rId6"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
@@ -8983,19 +9476,19 @@
           <x14:formula1>
             <xm:f>Datos!$C$2:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>L8:L28 L30:L33</xm:sqref>
+          <xm:sqref>L8:L48</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$D$2:$D$11</xm:f>
           </x14:formula1>
-          <xm:sqref>K7:K34</xm:sqref>
+          <xm:sqref>K7:K43</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G30:G1048576 G1:G28</xm:sqref>
+          <xm:sqref>G1:G28 G30:G1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9007,14 +9500,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B49"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.625" customWidth="1"/>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="28.75" customWidth="1"/>
     <col min="3" max="4" width="12.875" customWidth="1"/>
     <col min="5" max="5" width="8.75" customWidth="1"/>
     <col min="6" max="6" width="12.875" customWidth="1"/>
@@ -9037,7 +9530,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="15">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -9045,7 +9538,7 @@
         <v>42</v>
       </c>
       <c r="B5" s="16">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -9061,7 +9554,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="17">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -9077,21 +9570,29 @@
         <v>45</v>
       </c>
       <c r="B25" s="15">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="16"/>
+        <v>43</v>
+      </c>
+      <c r="B26" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="16"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="17">
-        <v>21</v>
+      <c r="B28" s="17">
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
